--- a/docs/Classifcation Reports/RandomForestClassifier()_1.xlsx
+++ b/docs/Classifcation Reports/RandomForestClassifier()_1.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8135215453194651</v>
+        <v>0.7955555555555556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9399141630901288</v>
+        <v>0.9290657439446367</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8721624850657109</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E2" t="n">
-        <v>1165</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9509493670886076</v>
+        <v>0.9525316455696202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9303405572755418</v>
+        <v>0.9275808936825886</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9405320813771517</v>
+        <v>0.9398907103825137</v>
       </c>
       <c r="E3" t="n">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8283950617283951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8628719275549805</v>
+        <v>0.8515228426395939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8453738910012674</v>
+        <v>0.8397997496871088</v>
       </c>
       <c r="E4" t="n">
-        <v>773</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8343949044585988</v>
+        <v>0.9662162162162162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3679775280898877</v>
+        <v>0.4121037463976945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5107212475633529</v>
+        <v>0.5777777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8482993197278912</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8482993197278912</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8482993197278912</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8482993197278912</v>
+        <v>0.8469387755102041</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.856859311359525</v>
+        <v>0.8856746197674468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7752760440026346</v>
+        <v>0.7800683066661284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7921974262518707</v>
+        <v>0.8036527737475644</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8502027862957118</v>
+        <v>0.8591522434918055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8482993197278912</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8363754427033082</v>
+        <v>0.8377881991624915</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
